--- a/WorkingFolder/Tables/macro_corr_age_gr.xlsx
+++ b/WorkingFolder/Tables/macro_corr_age_gr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>mean:incvar for young</t>
   </si>
@@ -43,139 +43,166 @@
     <t>mean:incskew for old</t>
   </si>
   <si>
-    <t>-0.2*</t>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.21*</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>-0.27**</t>
+  </si>
+  <si>
+    <t>-0.31**</t>
+  </si>
+  <si>
+    <t>-0.32**</t>
+  </si>
+  <si>
+    <t>-0.34***</t>
+  </si>
+  <si>
+    <t>-0.28**</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>-0.21*</t>
+  </si>
+  <si>
+    <t>-0.25**</t>
+  </si>
+  <si>
+    <t>-0.14</t>
   </si>
   <si>
     <t>-0.12</t>
   </si>
   <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.2*</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
     <t>-0.04</t>
   </si>
   <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.21*</t>
-  </si>
-  <si>
-    <t>-0.24**</t>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-0.24*</t>
+  </si>
+  <si>
+    <t>-0.23*</t>
+  </si>
+  <si>
+    <t>-0.33***</t>
+  </si>
+  <si>
+    <t>-0.38***</t>
+  </si>
+  <si>
+    <t>-0.37***</t>
+  </si>
+  <si>
+    <t>-0.36***</t>
+  </si>
+  <si>
+    <t>-0.25*</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.29**</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.22*</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>-0.17</t>
   </si>
   <si>
     <t>0.01</t>
   </si>
   <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>-0.26**</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.14</t>
-  </si>
-  <si>
-    <t>-0.21*</t>
-  </si>
-  <si>
     <t>-0.08</t>
   </si>
   <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
     <t>-0.09</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>0.26**</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>-0.28**</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>-0.25**</t>
-  </si>
-  <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>-0.31**</t>
-  </si>
-  <si>
-    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -576,28 +603,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -608,28 +635,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -640,28 +667,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -672,28 +699,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -704,28 +731,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -736,28 +763,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -768,25 +795,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
@@ -797,31 +824,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -829,31 +856,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -861,31 +888,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -893,31 +920,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -925,31 +952,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr_age_gr.xlsx
+++ b/WorkingFolder/Tables/macro_corr_age_gr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>mean:incvar for young</t>
   </si>
@@ -43,166 +43,136 @@
     <t>mean:incskew for old</t>
   </si>
   <si>
-    <t>0.09</t>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>-0.22*</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.28**</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.25**</t>
+  </si>
+  <si>
+    <t>-0.3**</t>
+  </si>
+  <si>
+    <t>-0.24*</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>-0.21*</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>-0.24**</t>
+  </si>
+  <si>
+    <t>-0.32***</t>
+  </si>
+  <si>
+    <t>-0.23*</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>-0.12</t>
   </si>
   <si>
     <t>0.05</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.21*</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>-0.27**</t>
-  </si>
-  <si>
-    <t>-0.31**</t>
-  </si>
-  <si>
-    <t>-0.32**</t>
-  </si>
-  <si>
-    <t>-0.34***</t>
-  </si>
-  <si>
-    <t>-0.28**</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.21*</t>
-  </si>
-  <si>
-    <t>-0.25**</t>
-  </si>
-  <si>
-    <t>-0.14</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.2*</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.03</t>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>0.04</t>
   </si>
   <si>
     <t>-0.04</t>
   </si>
   <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-0.24*</t>
-  </si>
-  <si>
-    <t>-0.23*</t>
-  </si>
-  <si>
-    <t>-0.33***</t>
-  </si>
-  <si>
-    <t>-0.38***</t>
-  </si>
-  <si>
-    <t>-0.37***</t>
-  </si>
-  <si>
-    <t>-0.36***</t>
-  </si>
-  <si>
-    <t>-0.25*</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.29**</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-0.22*</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>-0.09</t>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -603,28 +573,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -635,28 +605,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -667,28 +637,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -699,28 +669,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -731,28 +701,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -763,28 +733,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -795,28 +765,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -824,31 +794,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
         <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -856,31 +826,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
         <v>48</v>
       </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -888,31 +858,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -923,28 +893,28 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -955,28 +925,28 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr_age_gr.xlsx
+++ b/WorkingFolder/Tables/macro_corr_age_gr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
   <si>
     <t>mean:incvar for young</t>
   </si>
@@ -43,136 +43,133 @@
     <t>mean:incskew for old</t>
   </si>
   <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>-0.24**</t>
+  </si>
+  <si>
+    <t>-0.2*</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>-0.23**</t>
+  </si>
+  <si>
+    <t>-0.22*</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
     <t>-0.08</t>
   </si>
   <si>
-    <t>-0.14</t>
-  </si>
-  <si>
-    <t>-0.22*</t>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>-0.19</t>
   </si>
   <si>
     <t>-0.01</t>
   </si>
   <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.28**</t>
-  </si>
-  <si>
-    <t>0.01</t>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.2*</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>-0.21*</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>-0.03</t>
   </si>
   <si>
     <t>-0.0</t>
   </si>
   <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
     <t>0.14</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>-0.25**</t>
-  </si>
-  <si>
-    <t>-0.3**</t>
-  </si>
-  <si>
-    <t>-0.24*</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.21*</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>-0.24**</t>
-  </si>
-  <si>
-    <t>-0.32***</t>
-  </si>
-  <si>
-    <t>-0.23*</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -576,25 +573,25 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -608,22 +605,22 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -640,25 +637,25 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -672,25 +669,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -704,25 +701,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -736,25 +733,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -768,25 +765,25 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -794,31 +791,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -826,31 +823,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -858,31 +855,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -899,22 +896,22 @@
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
         <v>40</v>
       </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -925,28 +922,28 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
